--- a/Parts/BOM_Arduino_Spot_Welder_V2.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Quantity</t>
   </si>
@@ -226,10 +226,28 @@
     <t xml:space="preserve">1,2m 16 mm² flexible cable </t>
   </si>
   <si>
-    <t>Aluminium 16x70x4mm</t>
-  </si>
-  <si>
     <t>cable lug for 16 mm²</t>
+  </si>
+  <si>
+    <t>Optional Part</t>
+  </si>
+  <si>
+    <t>http://www.mouser.de/ProductDetail/Vishay-Semiconductors/VS-100BGQ015/?qs=sGAEpiMZZMtQ8nqTKtFS%2fOCmnL5ICCTdVkRsGLHR4xE%3d</t>
+  </si>
+  <si>
+    <t>Schottky Diode: VS-100BGQ015</t>
+  </si>
+  <si>
+    <t>TVS Diode : 5KP13A-E3/54</t>
+  </si>
+  <si>
+    <t>http://www.mouser.de/ProductDetail/Vishay-Semiconductors/5KP13A-E3-54/?qs=sGAEpiMZZMuNo3spt1BaV%252bLr%252b0awzgKwP78GdWw4KAE%3d</t>
+  </si>
+  <si>
+    <t>Alu 17x70x4mm + 37x70x4mm</t>
+  </si>
+  <si>
+    <t>see alu_template.pdf</t>
   </si>
 </sst>
 </file>
@@ -287,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -523,6 +541,45 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -530,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,8 +699,27 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -950,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H32"/>
+  <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,10 +1082,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="18">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G5" s="18">
-        <v>9.1999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>6</v>
@@ -1308,9 +1384,11 @@
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>77</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="13">
         <v>2</v>
@@ -1358,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11">
@@ -1389,36 +1467,72 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="42">
-        <v>1</v>
-      </c>
-      <c r="D28" s="43" t="s">
+    <row r="28" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="45">
+        <v>1</v>
+      </c>
+      <c r="D28" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="44">
+      <c r="F28" s="47"/>
+      <c r="G28" s="48">
         <v>25</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E30" s="4" t="s">
+    <row r="29" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="40">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10">
+        <v>4.57</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="42">
+        <v>1</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30" s="44">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="6">
-        <f>SUM(G5:G29)</f>
-        <v>50.819999999999993</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G32" s="6">
+        <f>SUM(G5:G31)</f>
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1"/>
@@ -1433,8 +1547,11 @@
     <hyperlink ref="H2" r:id="rId10"/>
     <hyperlink ref="H6" r:id="rId11"/>
     <hyperlink ref="H17" r:id="rId12"/>
+    <hyperlink ref="H29" r:id="rId13"/>
+    <hyperlink ref="H30" r:id="rId14"/>
+    <hyperlink ref="E23" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Parts/BOM_Arduino_Spot_Welder_V2.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V2.xlsx
@@ -172,12 +172,6 @@
     <t>https://www.reichelt.de/ICs-MCP-1-2-/MCP-1407-E-P/3/index.html?ACTION=3&amp;GROUPID=5471&amp;ARTICLE=90039&amp;OFFSET=75&amp;</t>
   </si>
   <si>
-    <t>film capacitor 1 µF</t>
-  </si>
-  <si>
-    <t>https://www.reichelt.de/MKS-02/MKS-02-1-0-/3/index.html?ACTION=3&amp;GROUPID=7168&amp;ARTICLE=12312&amp;OFFSET=1000&amp;</t>
-  </si>
-  <si>
     <t>Resistor 1206 SMD  220 Ohm</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>https://www.reichelt.de/SMD-LEDs-Standard/LED-EL-1206-GR1/3/index.html?ACTION=3&amp;GROUPID=3035&amp;ARTICLE=156247&amp;OFFSET=1000&amp;</t>
   </si>
   <si>
-    <t>MKS-02 1,0µ</t>
-  </si>
-  <si>
     <t>e.g. old car starter cable or https://www.schweisshelden.de/schweisskabel-h01n2-d-16-mm2-48129</t>
   </si>
   <si>
@@ -248,6 +239,15 @@
   </si>
   <si>
     <t>see alu_template.pdf</t>
+  </si>
+  <si>
+    <t>film capacitor 1,5 µF RM5</t>
+  </si>
+  <si>
+    <t>MKS2-63 1,5µ</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/MKS-2/MKS2-63-1-5-/3/index.html?ACTION=3&amp;GROUPID=7169&amp;ARTICLE=12348&amp;OFFSET=75&amp;</t>
   </si>
 </sst>
 </file>
@@ -615,9 +615,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -721,6 +718,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1028,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,48 +1050,48 @@
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>8</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>1.2</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>9.6</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -1106,13 +1104,13 @@
       <c r="G6" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1125,12 +1123,12 @@
       <c r="G7" s="12">
         <v>0.76</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1143,12 +1141,12 @@
       <c r="G8" s="12">
         <v>0.84</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>3</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -1163,12 +1161,12 @@
       <c r="G9" s="12">
         <v>0.81</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1181,12 +1179,12 @@
       <c r="G10" s="12">
         <v>0.17</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>1</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -1199,12 +1197,12 @@
       <c r="G11" s="12">
         <v>0.26</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>1</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -1217,12 +1215,12 @@
       <c r="G12" s="12">
         <v>0.04</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>1</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1235,30 +1233,30 @@
       <c r="G13" s="12">
         <v>0.06</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>76</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12">
-        <v>0.45</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>53</v>
+        <v>0.32</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -1271,19 +1269,19 @@
       <c r="G15" s="12">
         <v>0.06</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" s="12">
         <v>0.02</v>
@@ -1291,19 +1289,19 @@
       <c r="G16" s="12">
         <v>0.04</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="23">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="24">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="F17" s="11">
         <v>0.02</v>
@@ -1311,19 +1309,19 @@
       <c r="G17" s="12">
         <v>0.04</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="23">
+        <v>8</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="24">
-        <v>8</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="F18" s="11">
         <v>0.02</v>
@@ -1331,26 +1329,26 @@
       <c r="G18" s="12">
         <v>0.16</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="26">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="27">
-        <v>1</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="H19" s="31" t="s">
         <v>63</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31">
-        <v>0.08</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,61 +1362,61 @@
       </c>
     </row>
     <row r="22" spans="3:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="33">
-        <v>1</v>
-      </c>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="32">
+        <v>1</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36">
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35">
         <v>2</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>74</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="13">
         <v>2</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>1</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="13">
         <v>3</v>
       </c>
-      <c r="H24" s="39" t="s">
-        <v>67</v>
+      <c r="H24" s="38" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>35</v>
@@ -1427,16 +1425,16 @@
       <c r="G25" s="13">
         <v>1</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11">
@@ -1445,12 +1443,12 @@
       <c r="G26" s="12">
         <v>1.8</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="40">
+      <c r="C27" s="39">
         <v>1</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -1463,62 +1461,62 @@
       <c r="G27" s="10">
         <v>1.95</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="45">
-        <v>1</v>
-      </c>
-      <c r="D28" s="46" t="s">
+      <c r="C28" s="44">
+        <v>1</v>
+      </c>
+      <c r="D28" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48">
+      <c r="F28" s="46"/>
+      <c r="G28" s="47">
         <v>25</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="40">
+      <c r="C29" s="39">
         <v>1</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="10">
         <v>4.57</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="41">
+        <v>1</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="43">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H30" s="50" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="42">
-        <v>1</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="44">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1526,7 @@
       </c>
       <c r="G32" s="6">
         <f>SUM(G5:G31)</f>
-        <v>57.8</v>
+        <v>57.669999999999995</v>
       </c>
     </row>
     <row r="33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Parts/BOM_Arduino_Spot_Welder_V2.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V2.xlsx
@@ -40,9 +40,6 @@
     <t>Reichelt.de Link</t>
   </si>
   <si>
-    <t>MCP 14E10-E/P</t>
-  </si>
-  <si>
     <t>Poti 6mm Linear 50K</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>https://www.reichelt.de/MKS-2/MKS2-63-1-5-/3/index.html?ACTION=3&amp;GROUPID=7169&amp;ARTICLE=12348&amp;OFFSET=75&amp;</t>
+  </si>
+  <si>
+    <t>MCP 1407-E/P</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,10 +1042,10 @@
   <sheetData>
     <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>2</v>
@@ -1095,17 +1095,17 @@
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12">
         <v>1.1000000000000001</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,17 +1114,17 @@
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12">
         <v>0.76</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1132,17 +1132,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12">
         <v>0.84</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1150,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="F9" s="12">
         <v>0.27</v>
@@ -1162,7 +1162,7 @@
         <v>0.81</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1170,17 +1170,17 @@
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12">
         <v>0.17</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1188,17 +1188,17 @@
         <v>1</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12">
         <v>0.26</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1206,17 +1206,17 @@
         <v>1</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12">
         <v>0.04</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1224,17 +1224,17 @@
         <v>1</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12">
         <v>0.06</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,17 +1242,17 @@
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="52" t="s">
         <v>75</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>76</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12">
         <v>0.32</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,17 +1260,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12">
         <v>0.06</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1278,10 +1278,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="F16" s="12">
         <v>0.02</v>
@@ -1290,7 +1290,7 @@
         <v>0.04</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,10 +1298,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="F17" s="11">
         <v>0.02</v>
@@ -1310,7 +1310,7 @@
         <v>0.04</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,10 +1318,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="F18" s="11">
         <v>0.02</v>
@@ -1330,7 +1330,7 @@
         <v>0.16</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1338,17 +1338,17 @@
         <v>1</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="30">
         <v>0.08</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,17 +1382,17 @@
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="51" t="s">
         <v>73</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>74</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="13">
         <v>2</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1416,17 +1416,17 @@
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="13">
         <v>1</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11">
@@ -1444,7 +1444,7 @@
         <v>1.8</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,17 +1452,17 @@
         <v>1</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10">
         <v>1.95</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1470,17 +1470,17 @@
         <v>1</v>
       </c>
       <c r="D28" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="46" t="s">
         <v>45</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>46</v>
       </c>
       <c r="F28" s="46"/>
       <c r="G28" s="47">
         <v>25</v>
       </c>
       <c r="H28" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,17 +1488,17 @@
         <v>1</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="10">
         <v>4.57</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1506,23 +1506,23 @@
         <v>1</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="43">
         <v>2.0099999999999998</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="3:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" s="6">
         <f>SUM(G5:G31)</f>
